--- a/data/processed/state_overviews/west-virginia_overview.xlsx
+++ b/data/processed/state_overviews/west-virginia_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>769</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Barbour County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>8</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Berkeley County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>28</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Braxton County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Brooke County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Cabell County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>53</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Doddridge County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Gilmer County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Greenbrier County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>25</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Hampshire County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Hancock County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Hardy County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>13</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>24</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>21</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Kanawha County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>111</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>10</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>6</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>13</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>9</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>6</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>McDowell County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>7</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>21</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Mineral County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>14</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Mingo County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>10</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Monongalia County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>47</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>8</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Nicholas County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>12</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Ohio County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>44</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Pendleton County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>8</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Pocahontas County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>5</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Preston County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>15</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Putnam County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>9</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Raleigh County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>27</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Randolph County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>20</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Ritchie County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Roane County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>6</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Summers County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>4</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Taylor County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>5</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Tucker County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>7</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Tyler County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>3</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Upshur County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>12</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>6</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Webster County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>2</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Wetzel County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>9</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Wirt County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>2</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Wood County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>41</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Wyoming County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>6</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,27 +2162,61 @@
           <t>Pleasants County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$1,067,242,685</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-27.48%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>75.81%</t>
         </is>
       </c>
     </row>
@@ -2129,8 +2271,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>368</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2159,8 +2303,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>401</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2189,8 +2335,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>769</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2264,8 +2412,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>278</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2294,8 +2444,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>183</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2324,8 +2476,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>111</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2354,8 +2508,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>32</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2384,8 +2540,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>94</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2414,8 +2572,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>71</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2444,8 +2604,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>769</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2519,8 +2681,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>38</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2549,8 +2713,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>32</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2579,8 +2745,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>31</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2609,8 +2777,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>63</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2639,8 +2809,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>13</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2669,8 +2841,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>316</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2699,8 +2873,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B8">
-        <v>55</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2729,8 +2905,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2759,8 +2937,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B10">
-        <v>206</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2789,8 +2969,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B11">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2819,8 +3001,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12">
-        <v>769</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/west-virginia_overview.xlsx
+++ b/data/processed/state_overviews/west-virginia_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,167 +431,167 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barbour County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$9,024,036</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.96%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Berkeley County</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$19,567,722</t>
+          <t>$1,067,242,685</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.77%</t>
+          <t>-27.48%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>75.81%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Barbour County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$5,253,491</t>
+          <t>$9,024,036</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.85%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-62.04%</t>
+          <t>-11.96%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braxton County</t>
+          <t>Berkeley County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,612,747</t>
+          <t>$19,567,722</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.57%</t>
+          <t>-11.77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brooke County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,177 +601,177 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$9,836,958</t>
+          <t>$5,253,491</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>-1.85%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-24.27%</t>
+          <t>-62.04%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cabell County</t>
+          <t>Braxton County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$183,489,133</t>
+          <t>$2,612,747</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>7.74%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-38.81%</t>
+          <t>5.57%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.47%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Brooke County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$6,021,595</t>
+          <t>$9,836,958</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.16%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-42.76%</t>
+          <t>-24.27%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Doddridge County</t>
+          <t>Cabell County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$589,607</t>
+          <t>$183,489,133</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-3.12%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-85.30%</t>
+          <t>-38.81%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.47%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$13,411,248</t>
+          <t>$6,021,595</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>32.58%</t>
+          <t>15.16%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-37.33%</t>
+          <t>-42.76%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gilmer County</t>
+          <t>Doddridge County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$68,500</t>
+          <t>$589,607</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-68.25%</t>
+          <t>-3.12%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-94.96%</t>
+          <t>-85.30%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,1277 +793,1277 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$3,221,163</t>
+          <t>$13,411,248</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>32.58%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>-37.33%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greenbrier County</t>
+          <t>Gilmer County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$15,995,246</t>
+          <t>$68,500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19.24%</t>
+          <t>-68.25%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-13.40%</t>
+          <t>-94.96%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hampshire County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$3,270,603</t>
+          <t>$3,221,163</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>7.87%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-22.02%</t>
+          <t>-14.97%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hancock County</t>
+          <t>Greenbrier County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$13,711,243</t>
+          <t>$15,995,246</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>19.24%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-31.85%</t>
+          <t>-13.40%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>64.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hardy County</t>
+          <t>Hampshire County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$17,758,851</t>
+          <t>$3,270,603</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-24.74%</t>
+          <t>-22.02%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Harrison County</t>
+          <t>Hancock County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$24,506,375</t>
+          <t>$13,711,243</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-31.20%</t>
+          <t>-31.85%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Hardy County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,290,773</t>
+          <t>$17,758,851</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>4.58%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-5.91%</t>
+          <t>-24.74%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Harrison County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$9,019,123</t>
+          <t>$24,506,375</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19.50%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-22.09%</t>
+          <t>-31.20%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kanawha County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$191,223,147</t>
+          <t>$1,290,773</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-32.49%</t>
+          <t>-5.91%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>79.28%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$3,836,222</t>
+          <t>$9,019,123</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.47%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-31.16%</t>
+          <t>-22.09%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>76.19%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Kanawha County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$8,473,846</t>
+          <t>$191,223,147</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-70.12%</t>
+          <t>-32.49%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>79.28%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$10,105,029</t>
+          <t>$3,836,222</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.41%</t>
+          <t>4.47%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-38.87%</t>
+          <t>-31.16%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$25,630,232</t>
+          <t>$8,473,846</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-2.99%</t>
+          <t>-70.12%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2,967,773</t>
+          <t>$10,105,029</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>15.41%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-65.09%</t>
+          <t>-38.87%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mason County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$680,673</t>
+          <t>$25,630,232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>18.53%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-28.79%</t>
+          <t>-2.99%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>McDowell County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$7,019,129</t>
+          <t>$2,967,773</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>9.47%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-85.58%</t>
+          <t>-65.09%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>Mason County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$34,475,684</t>
+          <t>$680,673</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-33.03%</t>
+          <t>-28.79%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mineral County</t>
+          <t>McDowell County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$9,860,443</t>
+          <t>$7,019,129</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-30.83%</t>
+          <t>-85.58%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mingo County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$17,344,659</t>
+          <t>$34,475,684</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13.54%</t>
+          <t>8.14%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-44.19%</t>
+          <t>-33.03%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Monongalia County</t>
+          <t>Mineral County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$162,541,682</t>
+          <t>$9,860,443</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15.88%</t>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-14.30%</t>
+          <t>-30.83%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>65.96%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Mingo County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$719,401</t>
+          <t>$17,344,659</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>36.67%</t>
+          <t>13.54%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-36.46%</t>
+          <t>-44.19%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Monongalia County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$2,945,045</t>
+          <t>$162,541,682</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17.69%</t>
+          <t>15.88%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-42.68%</t>
+          <t>-14.30%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>65.96%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nicholas County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$11,963,630</t>
+          <t>$719,401</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13.26%</t>
+          <t>36.67%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-10.04%</t>
+          <t>-36.46%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ohio County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$47,587,191</t>
+          <t>$2,945,045</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10.22%</t>
+          <t>17.69%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-11.97%</t>
+          <t>-42.68%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pendleton County</t>
+          <t>Nicholas County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$4,709,394</t>
+          <t>$11,963,630</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18.64%</t>
+          <t>13.26%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-21.02%</t>
+          <t>-10.04%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pocahontas County</t>
+          <t>Ohio County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$2,227,649</t>
+          <t>$47,587,191</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.19%</t>
+          <t>10.22%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-19.50%</t>
+          <t>-11.97%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Preston County</t>
+          <t>Pendleton County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$5,342,846</t>
+          <t>$4,709,394</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>18.64%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-22.13%</t>
+          <t>-21.02%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Putnam County</t>
+          <t>Pocahontas County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$8,740,115</t>
+          <t>$2,227,649</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>43.50%</t>
+          <t>7.19%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-13.32%</t>
+          <t>-19.50%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Raleigh County</t>
+          <t>Preston County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$42,781,625</t>
+          <t>$5,342,846</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-36.57%</t>
+          <t>-22.13%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>74.07%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Randolph County</t>
+          <t>Putnam County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$21,758,446</t>
+          <t>$8,740,115</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6.12%</t>
+          <t>43.50%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-25.88%</t>
+          <t>-13.32%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ritchie County</t>
+          <t>Raleigh County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$4,566,159</t>
+          <t>$42,781,625</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17.17%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-35.70%</t>
+          <t>-36.57%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>74.07%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Roane County</t>
+          <t>Randolph County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$5,218,150</t>
+          <t>$21,758,446</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-8.43%</t>
+          <t>6.12%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-22.50%</t>
+          <t>-25.88%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>85.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Summers County</t>
+          <t>Ritchie County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$2,184,887</t>
+          <t>$4,566,159</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>29.11%</t>
+          <t>17.17%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-60.63%</t>
+          <t>-35.70%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Taylor County</t>
+          <t>Roane County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$5,863,416</t>
+          <t>$5,218,150</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>-8.43%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-35.97%</t>
+          <t>-22.50%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tucker County</t>
+          <t>Summers County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$7,766,231</t>
+          <t>$2,184,887</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.31%</t>
+          <t>29.11%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-25.75%</t>
+          <t>-60.63%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tyler County</t>
+          <t>Taylor County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$356,360</t>
+          <t>$5,863,416</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>29.44%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-24.44%</t>
+          <t>-35.97%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Upshur County</t>
+          <t>Tucker County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$18,081,957</t>
+          <t>$7,766,231</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.63%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-5.97%</t>
+          <t>-25.75%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Tyler County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$5,535,111</t>
+          <t>$356,360</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20.36%</t>
+          <t>29.44%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-24.44%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Webster County</t>
+          <t>Upshur County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$5,501,011</t>
+          <t>$18,081,957</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-4.33%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-25.82%</t>
+          <t>-5.97%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wetzel County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$3,848,787</t>
+          <t>$5,535,111</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9.13%</t>
+          <t>20.36%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>-2.58%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wirt County</t>
+          <t>Webster County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2073,17 +2073,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$5,384,850</t>
+          <t>$5,501,011</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>-4.33%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-31.28%</t>
+          <t>-25.82%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2095,128 +2095,128 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Wood County</t>
+          <t>Wetzel County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$27,533,082</t>
+          <t>$3,848,787</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>9.13%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-28.95%</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>78.05%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wyoming County</t>
+          <t>Wirt County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$13,820,409</t>
+          <t>$5,384,850</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7.01%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-44.51%</t>
+          <t>-31.28%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pleasants County</t>
+          <t>Wood County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$27,533,082</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-28.95%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>78.05%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wyoming County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$1,067,242,685</t>
+          <t>$13,820,409</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>7.01%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-27.48%</t>
+          <t>-44.51%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>75.81%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2236,128 +2236,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$606,251,132</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.07%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-30.09%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76.36%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$460,991,553</t>
+          <t>$1,067,242,685</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.46%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-24.08%</t>
+          <t>-27.48%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.31%</t>
+          <t>75.81%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,067,242,685</t>
+          <t>$606,251,132</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>8.07%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-27.48%</t>
+          <t>-30.09%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.81%</t>
+          <t>76.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$460,991,553</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.46%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-24.08%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>75.31%</t>
         </is>
       </c>
     </row>
@@ -2382,34 +2414,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2441,128 +2473,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$225,205,168</t>
+          <t>$671,068,805</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>3.67%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22.74%</t>
+          <t>-8.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.05%</t>
+          <t>73.40%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$42,122,126</t>
+          <t>$225,205,168</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-32.13%</t>
+          <t>-22.74%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>77.05%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$84,072,249</t>
+          <t>$42,122,126</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.32%</t>
+          <t>9.18%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.71%</t>
+          <t>-32.13%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>75.68%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$671,068,805</t>
+          <t>$84,072,249</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>11.32%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>-13.71%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.40%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2651,34 +2683,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2710,7 +2742,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2742,7 +2774,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2774,7 +2806,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2838,7 +2870,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2870,7 +2902,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2902,7 +2934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2934,64 +2966,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$510,666,753</t>
+          <t>$18,446,604</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-19.49%</t>
+          <t>-10.50%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>76.70%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$18,446,604</t>
+          <t>$510,666,753</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.50%</t>
+          <t>-19.49%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>76.70%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/west-virginia_overview.xlsx
+++ b/data/processed/state_overviews/west-virginia_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>75.81%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,067,242,685</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.81%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>75.81%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,067,242,685</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>75.81%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$9,024,036</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$19,567,722</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.47%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-11.77%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$5,253,491</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-1.85%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-62.04%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,612,747</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.74%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.57%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$9,836,958</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2.66%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-24.27%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>75.47%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$183,489,133</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>3.68%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-38.81%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>75.47%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$6,021,595</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>15.16%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-42.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$589,607</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-3.12%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-85.30%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$13,411,248</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>32.58%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-37.33%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$68,500</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-68.25%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-94.96%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$3,221,163</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-14.97%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>64.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$15,995,246</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>19.24%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-13.40%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>64.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$3,270,603</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.15%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-22.02%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$13,711,243</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-31.85%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$17,758,851</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>4.58%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-24.74%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$24,506,375</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>3.04%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-31.20%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$1,290,773</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>6.61%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-5.91%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$9,019,123</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>19.50%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-22.09%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>79.28%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$191,223,147</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>6.21%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-32.49%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>79.28%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$3,836,222</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-31.16%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$8,473,846</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>5.88%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-70.12%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$10,105,029</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>15.41%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-38.87%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$25,630,232</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>18.53%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-2.99%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$2,967,773</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>9.47%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-65.09%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$680,673</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>5.17%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-28.79%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$7,019,129</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>3.00%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-85.58%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$34,475,684</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>8.14%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-33.03%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$9,860,443</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>5.76%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-30.83%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$17,344,659</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>13.54%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-44.19%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>65.96%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$162,541,682</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-14.30%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>65.96%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$719,401</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>36.67%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-36.46%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$2,945,045</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>17.69%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-42.68%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$11,963,630</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>13.26%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-10.04%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>68.18%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$47,587,191</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>10.22%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-11.97%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>68.18%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$4,709,394</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>18.64%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-21.02%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$2,227,649</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>7.19%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-19.50%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$5,342,846</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>11.99%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-22.13%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$8,740,115</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>43.50%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-13.32%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$42,781,625</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>7.06%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-36.57%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>74.07%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$21,758,446</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>6.12%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-25.88%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>85.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$4,566,159</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>17.17%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-35.70%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$5,218,150</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>-8.43%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-22.50%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$2,184,887</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>29.11%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-60.63%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$5,863,416</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>6.98%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-35.97%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$7,766,231</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-25.75%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$356,360</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>29.44%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-24.44%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$18,081,957</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>9.63%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-5.97%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$5,535,111</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>20.36%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-2.58%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$5,501,011</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>-4.33%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-25.82%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$3,848,787</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>9.13%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-5.83%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$5,384,850</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-31.28%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>78.05%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$27,533,082</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>11.19%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-28.95%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>78.05%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$13,820,409</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>7.01%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-44.51%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2241,27 +2241,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2273,27 +2273,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2305,91 +2305,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>75.81%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,067,242,685</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>75.81%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>76.36%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>368</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$606,251,132</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.07%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-30.09%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>76.36%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.31%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>401</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$460,991,553</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.46%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-24.08%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.31%</t>
         </is>
       </c>
     </row>
@@ -2414,187 +2414,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75.90%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>278</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$39,348,992</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.10%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-35.34%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.90%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>77.05%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$671,068,805</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>$225,205,168</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.40%</t>
+          <t>-22.74%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>75.68%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$225,205,168</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>$42,122,126</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-22.74%</t>
+          <t>9.18%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77.05%</t>
+          <t>-32.13%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$42,122,126</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>$84,072,249</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-32.13%</t>
+          <t>11.32%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>-13.71%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>73.40%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$84,072,249</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.32%</t>
+          <t>$671,068,805</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.71%</t>
+          <t>3.67%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-8.91%</t>
         </is>
       </c>
     </row>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.06%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,425,345</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>29.44%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-32.25%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.06%</t>
         </is>
       </c>
     </row>
@@ -2638,27 +2638,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.81%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,067,242,685</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.81%</t>
         </is>
       </c>
     </row>
@@ -2683,155 +2683,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>71.05%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$16,481,528</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.29%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-20.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>71.05%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.62%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$26,427,619</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>15.46%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-20.25%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.62%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>51.61%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$7,559,689</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>15.26%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.53%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>51.61%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$124,845,978</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-13.89%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2843,187 +2843,187 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$36,156,605</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.29%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.04%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>79.75%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>316</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$187,409,162</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-37.74%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>79.75%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$136,546,982</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-42.53%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$2,701,765</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-2.00%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76.70%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$18,446,604</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>$510,666,753</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-10.50%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-19.49%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$510,666,753</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>$18,446,604</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.49%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>76.70%</t>
+          <t>-10.50%</t>
         </is>
       </c>
     </row>
@@ -3035,27 +3035,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>75.81%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$1,067,242,685</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>75.81%</t>
         </is>
       </c>
     </row>
